--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3023.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3023.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.173032349471475</v>
+        <v>1.492932558059692</v>
       </c>
       <c r="B1">
-        <v>1.992226233291275</v>
+        <v>1.448063015937805</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>7.285219669342041</v>
       </c>
       <c r="D1">
-        <v>2.117993248868871</v>
+        <v>1.717133164405823</v>
       </c>
       <c r="E1">
-        <v>1.199539526345148</v>
+        <v>1.000354170799255</v>
       </c>
     </row>
   </sheetData>
